--- a/1_FCU_HA_v03/1_FCU_HA_v03.xlsx
+++ b/1_FCU_HA_v03/1_FCU_HA_v03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69390bb4cacf394b/Pulpit/ESATAN_PARSER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69390bb4cacf394b/Pulpit/ESATAN_PARSER/1_FCU_HA_v03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A0ACC234-5CB5-40F3-B39E-00F2F74CF562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96038B69-C66F-4C0B-9B51-BC89F26C1266}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{A0ACC234-5CB5-40F3-B39E-00F2F74CF562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15099C65-A2A6-4BDD-A9A7-7041991D6580}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIERARCHY" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="294">
   <si>
     <t>PID</t>
   </si>
@@ -2297,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8477,8 +8477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8535,12 +8535,8 @@
       <c r="U1" s="35"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2">
-        <v>999999</v>
-      </c>
+      <c r="A2" s="21"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="36"/>
